--- a/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_jun-2021_tratado.xlsx
+++ b/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_jun-2021_tratado.xlsx
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>6629979164</v>
+        <v>4598251920</v>
       </c>
     </row>
     <row r="3">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>7472006757</v>
+        <v>3828631186</v>
       </c>
     </row>
     <row r="4">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>2215290122</v>
+        <v>1763234225</v>
       </c>
     </row>
     <row r="5">
@@ -699,7 +699,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>6918045237</v>
+        <v>7370625428</v>
       </c>
     </row>
     <row r="6">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>8714153722</v>
+        <v>6382087303</v>
       </c>
     </row>
     <row r="7">
@@ -795,7 +795,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>868101205</v>
+        <v>6841275749</v>
       </c>
     </row>
     <row r="8">
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>9157714484</v>
+        <v>6776212504</v>
       </c>
     </row>
     <row r="9">
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>7635649634</v>
+        <v>973937625</v>
       </c>
     </row>
     <row r="10">
@@ -935,7 +935,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>736467020</v>
+        <v>2800749222</v>
       </c>
     </row>
     <row r="11">
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>8685963823</v>
+        <v>4931042209</v>
       </c>
     </row>
     <row r="12">
@@ -1033,7 +1033,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>7739542485</v>
+        <v>3255932662</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4287819213</v>
+        <v>3853333299</v>
       </c>
     </row>
     <row r="14">
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>4151584516</v>
+        <v>9569364601</v>
       </c>
     </row>
     <row r="15">
@@ -1177,7 +1177,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>9135602751</v>
+        <v>8039146464</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>8880813375</v>
+        <v>5352891551</v>
       </c>
     </row>
     <row r="17">
@@ -1273,7 +1273,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>8356464697</v>
+        <v>9987157065</v>
       </c>
     </row>
     <row r="18">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>1753054555</v>
+        <v>221573477</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>314066142</v>
+        <v>2751321315</v>
       </c>
     </row>
     <row r="20">
@@ -1413,7 +1413,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>1144983744</v>
+        <v>8583764541</v>
       </c>
     </row>
     <row r="21">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>9827941263</v>
+        <v>6230275155</v>
       </c>
     </row>
     <row r="22">
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>9311303795</v>
+        <v>2198241096</v>
       </c>
     </row>
     <row r="23">
@@ -1557,7 +1557,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>2091411350</v>
+        <v>8712675471</v>
       </c>
     </row>
     <row r="24">
@@ -1605,7 +1605,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>291272106</v>
+        <v>2674010401</v>
       </c>
     </row>
     <row r="25">
@@ -1653,7 +1653,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>763724575</v>
+        <v>29819218</v>
       </c>
     </row>
     <row r="26">
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>904479795</v>
+        <v>2970943617</v>
       </c>
     </row>
     <row r="27">
@@ -1749,7 +1749,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>9813361718</v>
+        <v>3713922597</v>
       </c>
     </row>
     <row r="28">
@@ -1797,7 +1797,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3944904883</v>
+        <v>4042160410</v>
       </c>
     </row>
     <row r="29">
@@ -1845,7 +1845,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3132978942</v>
+        <v>1232811153</v>
       </c>
     </row>
     <row r="30">
@@ -1893,7 +1893,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>7996619623</v>
+        <v>7163484457</v>
       </c>
     </row>
     <row r="31">
@@ -1941,7 +1941,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6894358357</v>
+        <v>1166253158</v>
       </c>
     </row>
     <row r="32">
@@ -1989,7 +1989,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>4059278914</v>
+        <v>7538537533</v>
       </c>
     </row>
     <row r="33">
@@ -2037,7 +2037,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>1339702607</v>
+        <v>8867983337</v>
       </c>
     </row>
     <row r="34">
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>610834898</v>
+        <v>8479595491</v>
       </c>
     </row>
     <row r="35">
@@ -2133,7 +2133,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>9195203555</v>
+        <v>243850718</v>
       </c>
     </row>
     <row r="36">
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>6213645602</v>
+        <v>7881057180</v>
       </c>
     </row>
     <row r="37">
@@ -2229,7 +2229,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2697536054</v>
+        <v>2997598502</v>
       </c>
     </row>
     <row r="38">
@@ -2277,7 +2277,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>1050803882</v>
+        <v>7241550800</v>
       </c>
     </row>
     <row r="39">
@@ -2325,7 +2325,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>9888331214</v>
+        <v>8225343455</v>
       </c>
     </row>
     <row r="40">
@@ -2373,7 +2373,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4313677614</v>
+        <v>3495234020</v>
       </c>
     </row>
     <row r="41">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>9021757575</v>
+        <v>9152928235</v>
       </c>
     </row>
     <row r="42">
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>4275882410</v>
+        <v>2485686642</v>
       </c>
     </row>
     <row r="43">
@@ -2517,7 +2517,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3701204565</v>
+        <v>5038495806</v>
       </c>
     </row>
     <row r="44">
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>9142802914</v>
+        <v>6695087430</v>
       </c>
     </row>
     <row r="45">
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3738558655</v>
+        <v>6755550360</v>
       </c>
     </row>
     <row r="46">
@@ -2659,7 +2659,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3119354676</v>
+        <v>6175732202</v>
       </c>
     </row>
     <row r="47">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>6076000747</v>
+        <v>7197748045</v>
       </c>
     </row>
     <row r="48">
@@ -2755,7 +2755,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>8783811545</v>
+        <v>4459813072</v>
       </c>
     </row>
     <row r="49">
@@ -2803,7 +2803,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>7753711163</v>
+        <v>8842325933</v>
       </c>
     </row>
     <row r="50">
@@ -2851,7 +2851,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>4499129242</v>
+        <v>2971987941</v>
       </c>
     </row>
     <row r="51">
@@ -2899,7 +2899,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>8482230043</v>
+        <v>7885686695</v>
       </c>
     </row>
     <row r="52">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>6536146292</v>
+        <v>6334425333</v>
       </c>
     </row>
     <row r="53">
@@ -2995,7 +2995,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>9311257746</v>
+        <v>7762257273</v>
       </c>
     </row>
     <row r="54">
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>1287085955</v>
+        <v>7366289828</v>
       </c>
     </row>
     <row r="55">
@@ -3091,7 +3091,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4003239852</v>
+        <v>3569195858</v>
       </c>
     </row>
     <row r="56">
@@ -3139,7 +3139,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>3339863502</v>
+        <v>2368130100</v>
       </c>
     </row>
     <row r="57">
@@ -3187,7 +3187,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>1873541972</v>
+        <v>4483440879</v>
       </c>
     </row>
     <row r="58">
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>9465334701</v>
+        <v>7317720973</v>
       </c>
     </row>
     <row r="59">
@@ -3283,7 +3283,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2516089660</v>
+        <v>5759738433</v>
       </c>
     </row>
     <row r="60">
@@ -3331,7 +3331,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2509265675</v>
+        <v>9563860455</v>
       </c>
     </row>
     <row r="61">
@@ -3379,7 +3379,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>1976069936</v>
+        <v>5386856667</v>
       </c>
     </row>
     <row r="62">
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>5895943848</v>
+        <v>8926504845</v>
       </c>
     </row>
     <row r="63">
@@ -3475,7 +3475,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>2451915630</v>
+        <v>4071890302</v>
       </c>
     </row>
     <row r="64">
@@ -3523,7 +3523,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3114178257</v>
+        <v>8800215992</v>
       </c>
     </row>
     <row r="65">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>5671007432</v>
+        <v>8681165658</v>
       </c>
     </row>
     <row r="66">
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>9367065802</v>
+        <v>6517425871</v>
       </c>
     </row>
     <row r="67">
@@ -3667,7 +3667,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>1117344384</v>
+        <v>2707839078</v>
       </c>
     </row>
     <row r="68">
@@ -3715,7 +3715,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>7627685420</v>
+        <v>4294229023</v>
       </c>
     </row>
     <row r="69">
@@ -3763,7 +3763,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>2901515500</v>
+        <v>1054984279</v>
       </c>
     </row>
     <row r="70">
@@ -3811,7 +3811,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>2857769795</v>
+        <v>7575531402</v>
       </c>
     </row>
     <row r="71">
@@ -3859,7 +3859,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3854644168</v>
+        <v>4625807781</v>
       </c>
     </row>
     <row r="72">
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>9957257026</v>
+        <v>5200347219</v>
       </c>
     </row>
     <row r="73">
@@ -3955,7 +3955,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>9201098779</v>
+        <v>9323102606</v>
       </c>
     </row>
     <row r="74">
@@ -4003,7 +4003,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>82082601</v>
+        <v>605392863</v>
       </c>
     </row>
     <row r="75">
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>7722295733</v>
+        <v>6743533503</v>
       </c>
     </row>
     <row r="76">
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>1183112039</v>
+        <v>6581166551</v>
       </c>
     </row>
     <row r="77">
@@ -4149,7 +4149,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3955361725</v>
+        <v>1650922159</v>
       </c>
     </row>
     <row r="78">
@@ -4197,7 +4197,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>8783344102</v>
+        <v>9597071201</v>
       </c>
     </row>
     <row r="79">
@@ -4241,7 +4241,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>8941858247</v>
+        <v>2184530049</v>
       </c>
     </row>
     <row r="80">
@@ -4285,7 +4285,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>8326972317</v>
+        <v>7780020104</v>
       </c>
     </row>
     <row r="81">
@@ -4333,7 +4333,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>5228393828</v>
+        <v>6272854511</v>
       </c>
     </row>
     <row r="82">
@@ -4381,7 +4381,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>7754095742</v>
+        <v>9534464387</v>
       </c>
     </row>
     <row r="83">
@@ -4429,7 +4429,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>6319397887</v>
+        <v>1925626464</v>
       </c>
     </row>
     <row r="84">
@@ -4477,7 +4477,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>1415246445</v>
+        <v>9891762532</v>
       </c>
     </row>
     <row r="85">
@@ -4525,7 +4525,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>232374913</v>
+        <v>8347565938</v>
       </c>
     </row>
     <row r="86">
@@ -4573,7 +4573,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>925997580</v>
+        <v>59021894</v>
       </c>
     </row>
     <row r="87">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>2504678069</v>
+        <v>266972565</v>
       </c>
     </row>
     <row r="88">
@@ -4669,7 +4669,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>8225113663</v>
+        <v>354460168</v>
       </c>
     </row>
     <row r="89">
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>7111696843</v>
+        <v>4701534821</v>
       </c>
     </row>
     <row r="90">
@@ -4765,7 +4765,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>6078286200</v>
+        <v>3817723832</v>
       </c>
     </row>
     <row r="91">
@@ -4813,7 +4813,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>1578023166</v>
+        <v>5798603211</v>
       </c>
     </row>
     <row r="92">
@@ -4861,7 +4861,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>1413439248</v>
+        <v>7682793927</v>
       </c>
     </row>
     <row r="93">
@@ -4909,7 +4909,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>6614800598</v>
+        <v>6940030862</v>
       </c>
     </row>
     <row r="94">
@@ -4959,7 +4959,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>958755913</v>
+        <v>5242571125</v>
       </c>
     </row>
     <row r="95">
@@ -5007,7 +5007,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>4821648545</v>
+        <v>5806672579</v>
       </c>
     </row>
     <row r="96">
@@ -5055,7 +5055,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1125552486</v>
+        <v>4125687252</v>
       </c>
     </row>
     <row r="97">
@@ -5103,7 +5103,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>6858223241</v>
+        <v>889078172</v>
       </c>
     </row>
     <row r="98">
@@ -5151,7 +5151,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>8083259458</v>
+        <v>5282813718</v>
       </c>
     </row>
     <row r="99">
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6955492701</v>
+        <v>5817297393</v>
       </c>
     </row>
     <row r="100">
@@ -5243,7 +5243,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>9812031162</v>
+        <v>9145412722</v>
       </c>
     </row>
     <row r="101">
@@ -5291,7 +5291,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>9344782531</v>
+        <v>8577266711</v>
       </c>
     </row>
     <row r="102">
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>8780361424</v>
+        <v>546433141</v>
       </c>
     </row>
     <row r="103">
@@ -5387,7 +5387,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>5713501231</v>
+        <v>1263689944</v>
       </c>
     </row>
     <row r="104">
@@ -5435,7 +5435,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>7935382839</v>
+        <v>3324912125</v>
       </c>
     </row>
     <row r="105">
@@ -5483,7 +5483,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3217456099</v>
+        <v>2391818898</v>
       </c>
     </row>
     <row r="106">
@@ -5531,7 +5531,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>446378431</v>
+        <v>7350382830</v>
       </c>
     </row>
     <row r="107">
@@ -5579,7 +5579,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>7517065166</v>
+        <v>6353879335</v>
       </c>
     </row>
     <row r="108">
@@ -5627,7 +5627,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>4978745729</v>
+        <v>2155331516</v>
       </c>
     </row>
     <row r="109">
@@ -5677,7 +5677,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>9056312444</v>
+        <v>7564360716</v>
       </c>
     </row>
     <row r="110">
@@ -5725,7 +5725,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>6692539187</v>
+        <v>6059171055</v>
       </c>
     </row>
     <row r="111">
@@ -5773,7 +5773,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>5219869996</v>
+        <v>8073430618</v>
       </c>
     </row>
     <row r="112">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>1055428758</v>
+        <v>5520190610</v>
       </c>
     </row>
     <row r="113">
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4794235638</v>
+        <v>7813227811</v>
       </c>
     </row>
     <row r="114">
@@ -5917,7 +5917,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3307180662</v>
+        <v>696715541</v>
       </c>
     </row>
     <row r="115">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>5367977692</v>
+        <v>2649887556</v>
       </c>
     </row>
     <row r="116">
@@ -6013,7 +6013,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3397962097</v>
+        <v>9715869751</v>
       </c>
     </row>
     <row r="117">
@@ -6061,7 +6061,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>4443074344</v>
+        <v>8860311810</v>
       </c>
     </row>
     <row r="118">
@@ -6109,7 +6109,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>7853093865</v>
+        <v>6058211029</v>
       </c>
     </row>
     <row r="119">
@@ -6157,7 +6157,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>9809977405</v>
+        <v>1206951344</v>
       </c>
     </row>
     <row r="120">
@@ -6205,7 +6205,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>825566629</v>
+        <v>5345716765</v>
       </c>
     </row>
     <row r="121">
@@ -6253,7 +6253,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>5485910239</v>
+        <v>7919583379</v>
       </c>
     </row>
     <row r="122">
@@ -6301,7 +6301,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>6349826551</v>
+        <v>9154861909</v>
       </c>
     </row>
     <row r="123">
@@ -6349,7 +6349,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>2371089733</v>
+        <v>1468339186</v>
       </c>
     </row>
     <row r="124">
@@ -6397,7 +6397,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>5407169722</v>
+        <v>544910900</v>
       </c>
     </row>
     <row r="125">
@@ -6445,7 +6445,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>7938862738</v>
+        <v>4727379868</v>
       </c>
     </row>
     <row r="126">
@@ -6493,7 +6493,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>4364419720</v>
+        <v>9027807930</v>
       </c>
     </row>
     <row r="127">
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3648832106</v>
+        <v>3120171373</v>
       </c>
     </row>
     <row r="128">
@@ -6585,7 +6585,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>6034219249</v>
+        <v>3769546241</v>
       </c>
     </row>
     <row r="129">
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>1975725242</v>
+        <v>6931214787</v>
       </c>
     </row>
     <row r="130">
@@ -6681,7 +6681,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>8221528413</v>
+        <v>9144820376</v>
       </c>
     </row>
     <row r="131">
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>8263188410</v>
+        <v>9261061305</v>
       </c>
     </row>
     <row r="132">
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>2583360385</v>
+        <v>4326025417</v>
       </c>
     </row>
     <row r="133">
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>7201490622</v>
+        <v>8050916770</v>
       </c>
     </row>
     <row r="134">
@@ -6875,7 +6875,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>2858430198</v>
+        <v>8183351390</v>
       </c>
     </row>
     <row r="135">
@@ -6925,7 +6925,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>5226375771</v>
+        <v>6714293277</v>
       </c>
     </row>
     <row r="136">
@@ -6969,7 +6969,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>6219037152</v>
+        <v>7821379339</v>
       </c>
     </row>
     <row r="137">
@@ -7013,7 +7013,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>9862883152</v>
+        <v>2655540008</v>
       </c>
     </row>
     <row r="138">
@@ -7065,7 +7065,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3486608620</v>
+        <v>6647775484</v>
       </c>
     </row>
     <row r="139">
@@ -7109,7 +7109,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>8270886735</v>
+        <v>345133639</v>
       </c>
     </row>
     <row r="140">
@@ -7153,7 +7153,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>5560884435</v>
+        <v>198526282</v>
       </c>
     </row>
     <row r="141">
@@ -7197,7 +7197,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>862652879</v>
+        <v>4792638327</v>
       </c>
     </row>
     <row r="142">
@@ -7241,7 +7241,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>9755608278</v>
+        <v>427974521</v>
       </c>
     </row>
     <row r="143">
@@ -7285,7 +7285,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>6616290002</v>
+        <v>3852050033</v>
       </c>
     </row>
     <row r="144">
@@ -7333,7 +7333,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>4003685624</v>
+        <v>544549274</v>
       </c>
     </row>
     <row r="145">
@@ -7381,7 +7381,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>2295715511</v>
+        <v>4442023191</v>
       </c>
     </row>
     <row r="146">
@@ -7429,7 +7429,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>5895123723</v>
+        <v>6105684640</v>
       </c>
     </row>
     <row r="147">
@@ -7477,7 +7477,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>1342819272</v>
+        <v>7100260992</v>
       </c>
     </row>
     <row r="148">
@@ -7525,7 +7525,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>8493653831</v>
+        <v>1968310646</v>
       </c>
     </row>
     <row r="149">
@@ -7575,7 +7575,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>5184726545</v>
+        <v>8767283998</v>
       </c>
     </row>
     <row r="150">
@@ -7623,7 +7623,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>6958822077</v>
+        <v>3680704239</v>
       </c>
     </row>
     <row r="151">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>2233266343</v>
+        <v>9097603619</v>
       </c>
     </row>
     <row r="152">
@@ -7719,7 +7719,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>7354603724</v>
+        <v>7219455728</v>
       </c>
     </row>
     <row r="153">
@@ -7767,7 +7767,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>7112078205</v>
+        <v>3951596343</v>
       </c>
     </row>
     <row r="154">
@@ -7815,7 +7815,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>7863302502</v>
+        <v>6867433237</v>
       </c>
     </row>
     <row r="155">
@@ -7863,7 +7863,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>2386291913</v>
+        <v>9649521776</v>
       </c>
     </row>
     <row r="156">
@@ -7911,7 +7911,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>9840168979</v>
+        <v>2235447492</v>
       </c>
     </row>
     <row r="157">
@@ -7959,7 +7959,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>2254319364</v>
+        <v>2806758728</v>
       </c>
     </row>
     <row r="158">
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>448793431</v>
+        <v>7031338140</v>
       </c>
     </row>
     <row r="159">
@@ -8055,7 +8055,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3202978805</v>
+        <v>7985507423</v>
       </c>
     </row>
     <row r="160">
@@ -8103,7 +8103,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3569716851</v>
+        <v>6380055848</v>
       </c>
     </row>
     <row r="161">
@@ -8151,7 +8151,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>8284317251</v>
+        <v>3907848427</v>
       </c>
     </row>
     <row r="162">
@@ -8199,7 +8199,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>2907642438</v>
+        <v>6409873664</v>
       </c>
     </row>
     <row r="163">
@@ -8247,7 +8247,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>5692030055</v>
+        <v>3688707255</v>
       </c>
     </row>
     <row r="164">
@@ -8295,7 +8295,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>6882241251</v>
+        <v>6832553590</v>
       </c>
     </row>
     <row r="165">
@@ -8343,7 +8343,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>5335127921</v>
+        <v>5203087763</v>
       </c>
     </row>
     <row r="166">
@@ -8391,7 +8391,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>836350258</v>
+        <v>7066687267</v>
       </c>
     </row>
     <row r="167">
@@ -8439,7 +8439,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>6057424398</v>
+        <v>3810919522</v>
       </c>
     </row>
     <row r="168">
@@ -8491,7 +8491,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3678154991</v>
+        <v>3430570897</v>
       </c>
     </row>
     <row r="169">
@@ -8539,7 +8539,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>9830124791</v>
+        <v>1603209954</v>
       </c>
     </row>
     <row r="170">
@@ -8587,7 +8587,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>1815745679</v>
+        <v>6263183095</v>
       </c>
     </row>
     <row r="171">
@@ -8635,7 +8635,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>1006514024</v>
+        <v>1356807474</v>
       </c>
     </row>
     <row r="172">
@@ -8683,7 +8683,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>5347183573</v>
+        <v>6589480546</v>
       </c>
     </row>
     <row r="173">
@@ -8731,7 +8731,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2079148464</v>
+        <v>1686421121</v>
       </c>
     </row>
     <row r="174">
@@ -8779,7 +8779,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>8827733416</v>
+        <v>6369692021</v>
       </c>
     </row>
     <row r="175">
@@ -8827,7 +8827,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>6494001659</v>
+        <v>3894620594</v>
       </c>
     </row>
     <row r="176">
@@ -8875,7 +8875,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>863987613</v>
+        <v>1733829843</v>
       </c>
     </row>
     <row r="177">
@@ -8923,7 +8923,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>7913388058</v>
+        <v>8437488534</v>
       </c>
     </row>
     <row r="178">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>9862387933</v>
+        <v>1135608167</v>
       </c>
     </row>
     <row r="179">
@@ -9019,7 +9019,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>4341918841</v>
+        <v>5268266734</v>
       </c>
     </row>
     <row r="180">
@@ -9065,7 +9065,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>5984649270</v>
+        <v>9004118676</v>
       </c>
     </row>
     <row r="181">
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>9774987745</v>
+        <v>1036407</v>
       </c>
     </row>
     <row r="182">
@@ -9155,7 +9155,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>5548955136</v>
+        <v>559213447</v>
       </c>
     </row>
     <row r="183">
@@ -9201,7 +9201,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>1308434549</v>
+        <v>8589138479</v>
       </c>
     </row>
     <row r="184">
@@ -9249,7 +9249,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>9181531011</v>
+        <v>4667305844</v>
       </c>
     </row>
     <row r="185">
@@ -9297,7 +9297,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1723460250</v>
+        <v>1198970418</v>
       </c>
     </row>
     <row r="186">
@@ -9343,7 +9343,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>1388759329</v>
+        <v>7289832930</v>
       </c>
     </row>
     <row r="187">
@@ -9391,7 +9391,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3844735601</v>
+        <v>4648366251</v>
       </c>
     </row>
     <row r="188">
@@ -9435,7 +9435,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>5868367529</v>
+        <v>7677965970</v>
       </c>
     </row>
     <row r="189">
@@ -9483,7 +9483,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>8867943033</v>
+        <v>2485437622</v>
       </c>
     </row>
     <row r="190">
@@ -9529,7 +9529,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>5034479532</v>
+        <v>8867904680</v>
       </c>
     </row>
     <row r="191">
@@ -9577,7 +9577,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>5448990280</v>
+        <v>8994282691</v>
       </c>
     </row>
     <row r="192">
@@ -9625,7 +9625,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2894809765</v>
+        <v>8352091036</v>
       </c>
     </row>
     <row r="193">
@@ -9673,7 +9673,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>2847662083</v>
+        <v>7049639785</v>
       </c>
     </row>
     <row r="194">
@@ -9723,7 +9723,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3387042063</v>
+        <v>4740290230</v>
       </c>
     </row>
     <row r="195">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>8219311915</v>
+        <v>1253752705</v>
       </c>
     </row>
     <row r="196">
@@ -9819,7 +9819,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>855665323</v>
+        <v>8342956181</v>
       </c>
     </row>
     <row r="197">
@@ -9865,7 +9865,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>7094379112</v>
+        <v>8904872604</v>
       </c>
     </row>
     <row r="198">
@@ -9911,7 +9911,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>570398743</v>
+        <v>7356517559</v>
       </c>
     </row>
     <row r="199">
@@ -9957,7 +9957,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>6082851710</v>
+        <v>8058827023</v>
       </c>
     </row>
     <row r="200">
@@ -10003,7 +10003,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3781194397</v>
+        <v>5243108696</v>
       </c>
     </row>
     <row r="201">
@@ -10049,7 +10049,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>9748339396</v>
+        <v>8326766226</v>
       </c>
     </row>
     <row r="202">
@@ -10095,7 +10095,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>5681556684</v>
+        <v>4760266660</v>
       </c>
     </row>
     <row r="203">
@@ -10141,7 +10141,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>8906972206</v>
+        <v>4817535845</v>
       </c>
     </row>
     <row r="204">
@@ -10189,7 +10189,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2074090731</v>
+        <v>6892074810</v>
       </c>
     </row>
     <row r="205">
@@ -10237,7 +10237,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>578000236</v>
+        <v>2452811475</v>
       </c>
     </row>
     <row r="206">
@@ -10285,7 +10285,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3714489768</v>
+        <v>9333220748</v>
       </c>
     </row>
     <row r="207">
@@ -10331,7 +10331,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>4588252906</v>
+        <v>7832964452</v>
       </c>
     </row>
     <row r="208">
@@ -10381,7 +10381,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>4126214991</v>
+        <v>6432536803</v>
       </c>
     </row>
     <row r="209">
@@ -10431,7 +10431,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>7539846190</v>
+        <v>9722855012</v>
       </c>
     </row>
     <row r="210">
@@ -10479,7 +10479,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>9637444429</v>
+        <v>2206421984</v>
       </c>
     </row>
     <row r="211">
@@ -10529,7 +10529,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>2499919437</v>
+        <v>8817484776</v>
       </c>
     </row>
     <row r="212">
@@ -10577,7 +10577,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3229768548</v>
+        <v>8204495850</v>
       </c>
     </row>
     <row r="213">
@@ -10625,7 +10625,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>1451449620</v>
+        <v>325070139</v>
       </c>
     </row>
     <row r="214">
@@ -10673,7 +10673,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>8351285943</v>
+        <v>1890076623</v>
       </c>
     </row>
     <row r="215">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3858835968</v>
+        <v>4977191511</v>
       </c>
     </row>
     <row r="216">
@@ -10769,7 +10769,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>8746935716</v>
+        <v>6930158403</v>
       </c>
     </row>
     <row r="217">
@@ -10817,7 +10817,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>9202994181</v>
+        <v>171901535</v>
       </c>
     </row>
     <row r="218">
@@ -10865,7 +10865,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>7670248799</v>
+        <v>8109170885</v>
       </c>
     </row>
     <row r="219">
@@ -10915,7 +10915,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>4076447137</v>
+        <v>6487312617</v>
       </c>
     </row>
     <row r="220">
@@ -10963,7 +10963,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>9440721373</v>
+        <v>3347340674</v>
       </c>
     </row>
     <row r="221">
@@ -11011,7 +11011,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>2155568051</v>
+        <v>7338473713</v>
       </c>
     </row>
     <row r="222">
@@ -11059,7 +11059,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>4613324989</v>
+        <v>6517141742</v>
       </c>
     </row>
     <row r="223">
@@ -11107,7 +11107,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>4468839956</v>
+        <v>1401948378</v>
       </c>
     </row>
     <row r="224">
@@ -11155,7 +11155,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>6470665068</v>
+        <v>7477325177</v>
       </c>
     </row>
     <row r="225">
@@ -11203,7 +11203,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>4647781131</v>
+        <v>3956808871</v>
       </c>
     </row>
     <row r="226">
@@ -11251,7 +11251,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>5501342690</v>
+        <v>1081694655</v>
       </c>
     </row>
     <row r="227">
@@ -11299,7 +11299,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>3842152896</v>
+        <v>9457270764</v>
       </c>
     </row>
     <row r="228">
@@ -11347,7 +11347,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>7146245359</v>
+        <v>808751839</v>
       </c>
     </row>
     <row r="229">
@@ -11397,7 +11397,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>9286185619</v>
+        <v>552438909</v>
       </c>
     </row>
     <row r="230">
@@ -11445,7 +11445,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>5848452057</v>
+        <v>2535572380</v>
       </c>
     </row>
     <row r="231">
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>6371165954</v>
+        <v>2006513115</v>
       </c>
     </row>
     <row r="232">
@@ -11541,7 +11541,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>7817514411</v>
+        <v>5483803703</v>
       </c>
     </row>
     <row r="233">
@@ -11589,7 +11589,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>3053475836</v>
+        <v>6605221489</v>
       </c>
     </row>
     <row r="234">
@@ -11633,7 +11633,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>1122655453</v>
+        <v>2623988292</v>
       </c>
     </row>
     <row r="235">
@@ -11681,7 +11681,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>1639341494</v>
+        <v>9352264543</v>
       </c>
     </row>
     <row r="236">
@@ -11729,7 +11729,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>3031511044</v>
+        <v>8286005365</v>
       </c>
     </row>
     <row r="237">
@@ -11777,7 +11777,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>3918181790</v>
+        <v>8571206278</v>
       </c>
     </row>
     <row r="238">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>1203333528</v>
+        <v>3310371621</v>
       </c>
     </row>
     <row r="239">
@@ -11865,7 +11865,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>5787885127</v>
+        <v>5413395955</v>
       </c>
     </row>
     <row r="240">
@@ -11913,7 +11913,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>9757064766</v>
+        <v>3276046467</v>
       </c>
     </row>
     <row r="241">
@@ -11961,7 +11961,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>2874404077</v>
+        <v>1457259805</v>
       </c>
     </row>
     <row r="242">
@@ -12009,7 +12009,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>4415422706</v>
+        <v>1932283153</v>
       </c>
     </row>
     <row r="243">
@@ -12057,7 +12057,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>2534458956</v>
+        <v>2448680669</v>
       </c>
     </row>
     <row r="244">
@@ -12105,7 +12105,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>9632081814</v>
+        <v>6476315888</v>
       </c>
     </row>
     <row r="245">
@@ -12153,7 +12153,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>6241213918</v>
+        <v>1750956785</v>
       </c>
     </row>
     <row r="246">
@@ -12201,7 +12201,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>520579564</v>
+        <v>3250212792</v>
       </c>
     </row>
     <row r="247">
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>9258675616</v>
+        <v>7189628321</v>
       </c>
     </row>
     <row r="248">
@@ -12297,7 +12297,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>7934981390</v>
+        <v>343828792</v>
       </c>
     </row>
     <row r="249">
@@ -12345,7 +12345,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>4753222098</v>
+        <v>9696118939</v>
       </c>
     </row>
     <row r="250">
@@ -12393,7 +12393,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>5890763126</v>
+        <v>9786099966</v>
       </c>
     </row>
     <row r="251">
@@ -12441,7 +12441,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>7693298508</v>
+        <v>2667559786</v>
       </c>
     </row>
     <row r="252">
@@ -12491,7 +12491,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>7682109573</v>
+        <v>7046565351</v>
       </c>
     </row>
     <row r="253">
@@ -12541,7 +12541,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>4197503865</v>
+        <v>2734829262</v>
       </c>
     </row>
     <row r="254">
@@ -12589,7 +12589,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>9963980246</v>
+        <v>2274446706</v>
       </c>
     </row>
     <row r="255">
@@ -12637,7 +12637,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>2963682166</v>
+        <v>9504546632</v>
       </c>
     </row>
     <row r="256">
@@ -12685,7 +12685,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>5377456989</v>
+        <v>992981103</v>
       </c>
     </row>
     <row r="257">
@@ -12733,7 +12733,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>8866176552</v>
+        <v>1622768639</v>
       </c>
     </row>
     <row r="258">
@@ -12781,7 +12781,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>6937894452</v>
+        <v>2393962495</v>
       </c>
     </row>
     <row r="259">
@@ -12829,7 +12829,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>4528644642</v>
+        <v>557370471</v>
       </c>
     </row>
     <row r="260">
@@ -12877,7 +12877,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>1997383712</v>
+        <v>5505641266</v>
       </c>
     </row>
     <row r="261">
@@ -12925,7 +12925,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>3654278721</v>
+        <v>1496171262</v>
       </c>
     </row>
     <row r="262">
@@ -12973,7 +12973,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>5423731914</v>
+        <v>9414021274</v>
       </c>
     </row>
     <row r="263">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>5272672094</v>
+        <v>7166122873</v>
       </c>
     </row>
     <row r="264">
@@ -13069,7 +13069,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>5998839753</v>
+        <v>8899692736</v>
       </c>
     </row>
     <row r="265">
@@ -13117,7 +13117,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>8421450816</v>
+        <v>5290028048</v>
       </c>
     </row>
     <row r="266">
@@ -13165,7 +13165,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>5816393520</v>
+        <v>1896696666</v>
       </c>
     </row>
     <row r="267">
@@ -13213,7 +13213,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>1549651496</v>
+        <v>526343875</v>
       </c>
     </row>
     <row r="268">
@@ -13261,7 +13261,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>2012424422</v>
+        <v>7493973428</v>
       </c>
     </row>
     <row r="269">
@@ -13309,7 +13309,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>5154427751</v>
+        <v>2291713579</v>
       </c>
     </row>
     <row r="270">
@@ -13357,7 +13357,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>6291466137</v>
+        <v>4385976496</v>
       </c>
     </row>
     <row r="271">
@@ -13405,7 +13405,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>2095067091</v>
+        <v>2521927782</v>
       </c>
     </row>
     <row r="272">
@@ -13453,7 +13453,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>2498797538</v>
+        <v>3437957055</v>
       </c>
     </row>
     <row r="273">
@@ -13501,7 +13501,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>5543842541</v>
+        <v>6445575983</v>
       </c>
     </row>
     <row r="274">
@@ -13549,7 +13549,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>7929966662</v>
+        <v>3309275533</v>
       </c>
     </row>
     <row r="275">
@@ -13597,7 +13597,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>6799624592</v>
+        <v>7130939980</v>
       </c>
     </row>
     <row r="276">
@@ -13645,7 +13645,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>3228498456</v>
+        <v>4635447877</v>
       </c>
     </row>
     <row r="277">
@@ -13693,7 +13693,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>6266286570</v>
+        <v>6761918096</v>
       </c>
     </row>
     <row r="278">
@@ -13741,7 +13741,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>7208437851</v>
+        <v>1587495372</v>
       </c>
     </row>
     <row r="279">
@@ -13789,7 +13789,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>9589699049</v>
+        <v>6752591370</v>
       </c>
     </row>
     <row r="280">
@@ -13837,7 +13837,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>4086361200</v>
+        <v>6979050636</v>
       </c>
     </row>
     <row r="281">
@@ -13881,7 +13881,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>8615216301</v>
+        <v>3543057884</v>
       </c>
     </row>
     <row r="282">
@@ -13925,7 +13925,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>8779900182</v>
+        <v>1755960871</v>
       </c>
     </row>
     <row r="283">
@@ -13973,7 +13973,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>9074540496</v>
+        <v>4480957454</v>
       </c>
     </row>
     <row r="284">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>5453578490</v>
+        <v>2107048386</v>
       </c>
     </row>
     <row r="285">
@@ -14069,7 +14069,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>4306266537</v>
+        <v>8873603316</v>
       </c>
     </row>
     <row r="286">
@@ -14117,7 +14117,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>9742770473</v>
+        <v>876989542</v>
       </c>
     </row>
     <row r="287">
@@ -14167,7 +14167,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>4868073037</v>
+        <v>1766895121</v>
       </c>
     </row>
     <row r="288">
@@ -14215,7 +14215,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>2872960275</v>
+        <v>9449150024</v>
       </c>
     </row>
     <row r="289">
@@ -14261,7 +14261,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>3849567871</v>
+        <v>7799237796</v>
       </c>
     </row>
     <row r="290">
@@ -14311,7 +14311,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>1406184503</v>
+        <v>169966589</v>
       </c>
     </row>
     <row r="291">
@@ -14357,7 +14357,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>5366057266</v>
+        <v>7315290164</v>
       </c>
     </row>
     <row r="292">
@@ -14405,7 +14405,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>77739819</v>
+        <v>8084748551</v>
       </c>
     </row>
     <row r="293">
@@ -14453,7 +14453,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>5166328138</v>
+        <v>5760866474</v>
       </c>
     </row>
     <row r="294">
@@ -14499,7 +14499,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>9797707852</v>
+        <v>3724271912</v>
       </c>
     </row>
     <row r="295">
@@ -14545,7 +14545,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>848251588</v>
+        <v>418285799</v>
       </c>
     </row>
     <row r="296">
@@ -14591,7 +14591,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>9919918202</v>
+        <v>9427638570</v>
       </c>
     </row>
     <row r="297">
@@ -14637,7 +14637,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>7613458033</v>
+        <v>8552558305</v>
       </c>
     </row>
     <row r="298">
@@ -14683,7 +14683,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>4193207198</v>
+        <v>5179207741</v>
       </c>
     </row>
     <row r="299">
@@ -14731,7 +14731,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>5766466973</v>
+        <v>5663091390</v>
       </c>
     </row>
     <row r="300">
@@ -14777,7 +14777,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>3903836035</v>
+        <v>7318764778</v>
       </c>
     </row>
     <row r="301">
@@ -14827,7 +14827,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>1942145813</v>
+        <v>8419791201</v>
       </c>
     </row>
     <row r="302">
@@ -14873,7 +14873,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>5071737359</v>
+        <v>9604498287</v>
       </c>
     </row>
     <row r="303">
@@ -14923,7 +14923,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>7294870327</v>
+        <v>7236195165</v>
       </c>
     </row>
     <row r="304">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>4207794423</v>
+        <v>4442311893</v>
       </c>
     </row>
     <row r="305">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>2848637874</v>
+        <v>3028550154</v>
       </c>
     </row>
     <row r="306">
@@ -15069,7 +15069,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>3517724196</v>
+        <v>9283701052</v>
       </c>
     </row>
     <row r="307">
@@ -15117,7 +15117,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>9737304427</v>
+        <v>6766691521</v>
       </c>
     </row>
     <row r="308">
@@ -15163,7 +15163,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>4060615622</v>
+        <v>6696980762</v>
       </c>
     </row>
     <row r="309">
@@ -15209,7 +15209,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>7280086157</v>
+        <v>1428456386</v>
       </c>
     </row>
     <row r="310">
@@ -15257,7 +15257,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>4473328172</v>
+        <v>2854147565</v>
       </c>
     </row>
     <row r="311">
@@ -15305,7 +15305,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>3091324093</v>
+        <v>9052807234</v>
       </c>
     </row>
     <row r="312">
@@ -15351,7 +15351,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>1746755733</v>
+        <v>3903133895</v>
       </c>
     </row>
     <row r="313">
@@ -15399,7 +15399,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>59183192</v>
+        <v>8707884249</v>
       </c>
     </row>
     <row r="314">
@@ -15445,7 +15445,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>960402846</v>
+        <v>7919237383</v>
       </c>
     </row>
     <row r="315">
@@ -15491,7 +15491,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>9860474997</v>
+        <v>5531092819</v>
       </c>
     </row>
     <row r="316">
@@ -15537,7 +15537,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>1215062735</v>
+        <v>2266128338</v>
       </c>
     </row>
     <row r="317">
@@ -15585,7 +15585,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>5611462428</v>
+        <v>3162958147</v>
       </c>
     </row>
     <row r="318">
@@ -15633,7 +15633,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>3122649039</v>
+        <v>2057604990</v>
       </c>
     </row>
     <row r="319">
@@ -15683,7 +15683,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>9106435497</v>
+        <v>6766591757</v>
       </c>
     </row>
     <row r="320">
@@ -15731,7 +15731,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>8097583683</v>
+        <v>3100544490</v>
       </c>
     </row>
     <row r="321">
@@ -15779,7 +15779,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>3903720901</v>
+        <v>6377894319</v>
       </c>
     </row>
     <row r="322">
@@ -15829,7 +15829,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>5857942909</v>
+        <v>479569536</v>
       </c>
     </row>
     <row r="323">
@@ -15877,7 +15877,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>6256749164</v>
+        <v>6319774897</v>
       </c>
     </row>
     <row r="324">
@@ -15925,7 +15925,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>2873143232</v>
+        <v>1750193741</v>
       </c>
     </row>
     <row r="325">
@@ -15973,7 +15973,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>7968905676</v>
+        <v>1721315953</v>
       </c>
     </row>
     <row r="326">
@@ -16023,7 +16023,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>2966601309</v>
+        <v>8045853748</v>
       </c>
     </row>
     <row r="327">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>9196266043</v>
+        <v>4752683653</v>
       </c>
     </row>
     <row r="328">
@@ -16119,7 +16119,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>7540236490</v>
+        <v>2377374146</v>
       </c>
     </row>
     <row r="329">
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>214704429</v>
+        <v>3161540687</v>
       </c>
     </row>
     <row r="330">
@@ -16217,7 +16217,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>622087353</v>
+        <v>8554452852</v>
       </c>
     </row>
     <row r="331">
@@ -16265,7 +16265,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>1599559254</v>
+        <v>2552389104</v>
       </c>
     </row>
     <row r="332">
@@ -16313,7 +16313,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>6466029008</v>
+        <v>7323739598</v>
       </c>
     </row>
     <row r="333">
@@ -16361,7 +16361,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>5142921170</v>
+        <v>4349460207</v>
       </c>
     </row>
     <row r="334">
@@ -16409,7 +16409,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>9125856207</v>
+        <v>5597907562</v>
       </c>
     </row>
     <row r="335">
@@ -16457,7 +16457,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>5891804752</v>
+        <v>8655906529</v>
       </c>
     </row>
     <row r="336">
@@ -16505,7 +16505,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>7821415487</v>
+        <v>3233138909</v>
       </c>
     </row>
     <row r="337">
@@ -16553,7 +16553,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>7622602093</v>
+        <v>1325052099</v>
       </c>
     </row>
     <row r="338">
@@ -16601,7 +16601,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>1130779130</v>
+        <v>3762855076</v>
       </c>
     </row>
     <row r="339">
@@ -16649,7 +16649,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>436047468</v>
+        <v>6121715975</v>
       </c>
     </row>
     <row r="340">
@@ -16697,7 +16697,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>3386563782</v>
+        <v>8856007730</v>
       </c>
     </row>
     <row r="341">
@@ -16745,7 +16745,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>7923067822</v>
+        <v>3449472117</v>
       </c>
     </row>
     <row r="342">
@@ -16793,7 +16793,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>2305721723</v>
+        <v>9422694983</v>
       </c>
     </row>
     <row r="343">
@@ -16841,7 +16841,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>9337028455</v>
+        <v>9537462713</v>
       </c>
     </row>
     <row r="344">
@@ -16889,7 +16889,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>8710781249</v>
+        <v>1477153122</v>
       </c>
     </row>
     <row r="345">
@@ -16937,7 +16937,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>9234666363</v>
+        <v>2559178449</v>
       </c>
     </row>
     <row r="346">
@@ -16985,7 +16985,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>4515200071</v>
+        <v>1632786912</v>
       </c>
     </row>
     <row r="347">
@@ -17033,7 +17033,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>1784574427</v>
+        <v>2174430553</v>
       </c>
     </row>
     <row r="348">
@@ -17081,7 +17081,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>887414789</v>
+        <v>4260271742</v>
       </c>
     </row>
     <row r="349">
@@ -17129,7 +17129,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>2771924147</v>
+        <v>1599703248</v>
       </c>
     </row>
     <row r="350">
@@ -17177,7 +17177,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>9780886529</v>
+        <v>4793186653</v>
       </c>
     </row>
     <row r="351">
@@ -17225,7 +17225,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>1023860200</v>
+        <v>6534247435</v>
       </c>
     </row>
     <row r="352">
@@ -17273,7 +17273,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>4382610112</v>
+        <v>8280295301</v>
       </c>
     </row>
     <row r="353">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>5990815161</v>
+        <v>4665369671</v>
       </c>
     </row>
     <row r="354">
@@ -17369,7 +17369,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>9152262854</v>
+        <v>7298673768</v>
       </c>
     </row>
     <row r="355">
@@ -17417,7 +17417,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>9509790494</v>
+        <v>2380967805</v>
       </c>
     </row>
     <row r="356">
@@ -17465,7 +17465,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>7249496677</v>
+        <v>216734300</v>
       </c>
     </row>
     <row r="357">
@@ -17513,7 +17513,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>8230932728</v>
+        <v>5439990695</v>
       </c>
     </row>
     <row r="358">
@@ -17561,7 +17561,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>9745803116</v>
+        <v>1809271951</v>
       </c>
     </row>
     <row r="359">
@@ -17611,7 +17611,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>1214814836</v>
+        <v>9859643850</v>
       </c>
     </row>
     <row r="360">
@@ -17661,7 +17661,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>7532647142</v>
+        <v>8215489437</v>
       </c>
     </row>
     <row r="361">
@@ -17707,7 +17707,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>3196360139</v>
+        <v>8447220577</v>
       </c>
     </row>
     <row r="362">
@@ -17757,7 +17757,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>8538672491</v>
+        <v>927792984</v>
       </c>
     </row>
     <row r="363">
@@ -17807,7 +17807,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>9268899505</v>
+        <v>338600918</v>
       </c>
     </row>
     <row r="364">
@@ -17857,7 +17857,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>3739039604</v>
+        <v>8364815517</v>
       </c>
     </row>
     <row r="365">
@@ -17907,7 +17907,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>8248248272</v>
+        <v>6492244163</v>
       </c>
     </row>
     <row r="366">
@@ -17957,7 +17957,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>3316600500</v>
+        <v>2244346471</v>
       </c>
     </row>
     <row r="367">
@@ -18005,7 +18005,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>4193879738</v>
+        <v>747793742</v>
       </c>
     </row>
     <row r="368">
@@ -18053,7 +18053,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>2460796782</v>
+        <v>3389871354</v>
       </c>
     </row>
     <row r="369">
@@ -18101,7 +18101,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>6959965472</v>
+        <v>4568560687</v>
       </c>
     </row>
     <row r="370">
@@ -18149,7 +18149,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>4988204805</v>
+        <v>3529855505</v>
       </c>
     </row>
     <row r="371">
@@ -18197,7 +18197,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>8595267877</v>
+        <v>4271931614</v>
       </c>
     </row>
     <row r="372">
@@ -18245,7 +18245,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>3515108328</v>
+        <v>9175336506</v>
       </c>
     </row>
     <row r="373">
@@ -18293,7 +18293,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>8122161814</v>
+        <v>5395480732</v>
       </c>
     </row>
     <row r="374">
@@ -18341,7 +18341,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>940727132</v>
+        <v>507289033</v>
       </c>
     </row>
     <row r="375">
@@ -18389,7 +18389,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>8144810521</v>
+        <v>9754370407</v>
       </c>
     </row>
     <row r="376">
@@ -18437,7 +18437,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>320312633</v>
+        <v>5729567902</v>
       </c>
     </row>
     <row r="377">
@@ -18487,7 +18487,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>3209252876</v>
+        <v>608792952</v>
       </c>
     </row>
     <row r="378">
@@ -18535,7 +18535,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>3353798751</v>
+        <v>8704870144</v>
       </c>
     </row>
     <row r="379">
@@ -18585,7 +18585,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>8047107894</v>
+        <v>6755593949</v>
       </c>
     </row>
     <row r="380">
@@ -18635,7 +18635,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>9365010301</v>
+        <v>405892663</v>
       </c>
     </row>
     <row r="381">
@@ -18683,7 +18683,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>7166747429</v>
+        <v>1974621447</v>
       </c>
     </row>
     <row r="382">
@@ -18733,7 +18733,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>6171137649</v>
+        <v>8652040093</v>
       </c>
     </row>
     <row r="383">
@@ -18781,7 +18781,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>7350502009</v>
+        <v>8173730975</v>
       </c>
     </row>
     <row r="384">
@@ -18831,7 +18831,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>6992847726</v>
+        <v>8771852514</v>
       </c>
     </row>
     <row r="385">
@@ -18875,7 +18875,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>2413255492</v>
+        <v>1237282723</v>
       </c>
     </row>
     <row r="386">
@@ -18923,7 +18923,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>1326361704</v>
+        <v>1159873552</v>
       </c>
     </row>
     <row r="387">
@@ -18973,7 +18973,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>9621408056</v>
+        <v>2865357280</v>
       </c>
     </row>
     <row r="388">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>3643177490</v>
+        <v>4963183608</v>
       </c>
     </row>
     <row r="389">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>7149908365</v>
+        <v>7513539710</v>
       </c>
     </row>
     <row r="390">
@@ -19119,7 +19119,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>7299614803</v>
+        <v>214045884</v>
       </c>
     </row>
     <row r="391">
@@ -19167,7 +19167,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>340270959</v>
+        <v>9150401385</v>
       </c>
     </row>
     <row r="392">
@@ -19217,7 +19217,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>7915051608</v>
+        <v>8542250586</v>
       </c>
     </row>
     <row r="393">
@@ -19265,7 +19265,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>7116681139</v>
+        <v>2313288855</v>
       </c>
     </row>
     <row r="394">
@@ -19313,7 +19313,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>7645763125</v>
+        <v>1291407300</v>
       </c>
     </row>
     <row r="395">
@@ -19361,7 +19361,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>7680819749</v>
+        <v>9339560243</v>
       </c>
     </row>
     <row r="396">
@@ -19411,7 +19411,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>3817751224</v>
+        <v>4819555632</v>
       </c>
     </row>
     <row r="397">
@@ -19459,7 +19459,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>5388880394</v>
+        <v>7791156270</v>
       </c>
     </row>
     <row r="398">
@@ -19507,7 +19507,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>4753335802</v>
+        <v>3309216121</v>
       </c>
     </row>
     <row r="399">
@@ -19555,7 +19555,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>4895411496</v>
+        <v>1763070124</v>
       </c>
     </row>
     <row r="400">
@@ -19603,7 +19603,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>2653926889</v>
+        <v>8481733020</v>
       </c>
     </row>
     <row r="401">
@@ -19649,7 +19649,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>875719223</v>
+        <v>2693258896</v>
       </c>
     </row>
     <row r="402">
@@ -19699,7 +19699,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>2612012792</v>
+        <v>2137380381</v>
       </c>
     </row>
     <row r="403">
@@ -19745,7 +19745,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>3572814023</v>
+        <v>4533330271</v>
       </c>
     </row>
     <row r="404">
@@ -19791,7 +19791,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>8324508176</v>
+        <v>7067794185</v>
       </c>
     </row>
     <row r="405">
@@ -19837,7 +19837,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>5639867868</v>
+        <v>8516724688</v>
       </c>
     </row>
     <row r="406">
@@ -19885,7 +19885,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>6287142737</v>
+        <v>5090255819</v>
       </c>
     </row>
     <row r="407">
@@ -19931,7 +19931,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>7342435175</v>
+        <v>214747731</v>
       </c>
     </row>
     <row r="408">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>4988458689</v>
+        <v>1324861739</v>
       </c>
     </row>
     <row r="409">
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>97200810</v>
+        <v>3866917810</v>
       </c>
     </row>
     <row r="410">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>2277317521</v>
+        <v>5452053686</v>
       </c>
     </row>
     <row r="411">
@@ -20117,7 +20117,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>8598437209</v>
+        <v>1762701267</v>
       </c>
     </row>
     <row r="412">
@@ -20165,7 +20165,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>5430987874</v>
+        <v>2338157719</v>
       </c>
     </row>
     <row r="413">
@@ -20211,7 +20211,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>1731807478</v>
+        <v>316407085</v>
       </c>
     </row>
     <row r="414">
@@ -20259,7 +20259,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>783861720</v>
+        <v>2052635009</v>
       </c>
     </row>
     <row r="415">
@@ -20305,7 +20305,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>7262331550</v>
+        <v>9854875766</v>
       </c>
     </row>
     <row r="416">
@@ -20355,7 +20355,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>7690491329</v>
+        <v>1948464450</v>
       </c>
     </row>
     <row r="417">
@@ -20403,7 +20403,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>8866890716</v>
+        <v>7102222670</v>
       </c>
     </row>
     <row r="418">
@@ -20447,7 +20447,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>3683287006</v>
+        <v>7942918357</v>
       </c>
     </row>
     <row r="419">
@@ -20495,7 +20495,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>3611563769</v>
+        <v>7163313808</v>
       </c>
     </row>
     <row r="420">
@@ -20543,7 +20543,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>6450863027</v>
+        <v>1589246188</v>
       </c>
     </row>
     <row r="421">
@@ -20591,7 +20591,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>7082390252</v>
+        <v>2860194408</v>
       </c>
     </row>
     <row r="422">
@@ -20639,7 +20639,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>5351225739</v>
+        <v>5055665092</v>
       </c>
     </row>
     <row r="423">
@@ -20687,7 +20687,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>541096416</v>
+        <v>2284423522</v>
       </c>
     </row>
     <row r="424">
@@ -20735,7 +20735,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>6007877392</v>
+        <v>1113535007</v>
       </c>
     </row>
     <row r="425">
@@ -20783,7 +20783,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>7522566399</v>
+        <v>1401196585</v>
       </c>
     </row>
     <row r="426">
@@ -20831,7 +20831,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>457622782</v>
+        <v>4365971926</v>
       </c>
     </row>
     <row r="427">
@@ -20879,7 +20879,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>2835861675</v>
+        <v>3524748868</v>
       </c>
     </row>
     <row r="428">
@@ -20927,7 +20927,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>6622176030</v>
+        <v>1658492228</v>
       </c>
     </row>
     <row r="429">
@@ -20977,7 +20977,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>5901043052</v>
+        <v>4527530636</v>
       </c>
     </row>
     <row r="430">
@@ -21027,7 +21027,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>1504533342</v>
+        <v>2164893009</v>
       </c>
     </row>
     <row r="431">
@@ -21077,7 +21077,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>9736016937</v>
+        <v>2595356944</v>
       </c>
     </row>
     <row r="432">
@@ -21127,7 +21127,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>5471639611</v>
+        <v>7827828325</v>
       </c>
     </row>
     <row r="433">
@@ -21177,7 +21177,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>3571115705</v>
+        <v>2141708373</v>
       </c>
     </row>
     <row r="434">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>5207637851</v>
+        <v>2692620992</v>
       </c>
     </row>
     <row r="435">
@@ -21269,7 +21269,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>2228478669</v>
+        <v>141586252</v>
       </c>
     </row>
     <row r="436">
@@ -21317,7 +21317,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>6661193404</v>
+        <v>8119562372</v>
       </c>
     </row>
     <row r="437">
@@ -21365,7 +21365,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>9679184200</v>
+        <v>8448179327</v>
       </c>
     </row>
     <row r="438">
@@ -21413,7 +21413,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>8958278766</v>
+        <v>5815023224</v>
       </c>
     </row>
     <row r="439">
@@ -21459,7 +21459,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>8163205212</v>
+        <v>4744491376</v>
       </c>
     </row>
     <row r="440">
@@ -21507,7 +21507,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>2100900613</v>
+        <v>1120001030</v>
       </c>
     </row>
     <row r="441">
@@ -21555,7 +21555,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>8095758762</v>
+        <v>2713125539</v>
       </c>
     </row>
     <row r="442">
@@ -21603,7 +21603,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>9324072954</v>
+        <v>6287386808</v>
       </c>
     </row>
     <row r="443">
@@ -21653,7 +21653,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>1197071807</v>
+        <v>7687120162</v>
       </c>
     </row>
     <row r="444">
@@ -21699,7 +21699,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>2449511175</v>
+        <v>5891414031</v>
       </c>
     </row>
     <row r="445">
@@ -21747,7 +21747,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>4960148579</v>
+        <v>6018239172</v>
       </c>
     </row>
     <row r="446">
@@ -21795,7 +21795,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>1783307623</v>
+        <v>2262159991</v>
       </c>
     </row>
     <row r="447">
@@ -21839,7 +21839,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>3638741071</v>
+        <v>357642120</v>
       </c>
     </row>
     <row r="448">
@@ -21883,7 +21883,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>5760615235</v>
+        <v>997627657</v>
       </c>
     </row>
     <row r="449">
@@ -21933,7 +21933,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>635117393</v>
+        <v>7936195531</v>
       </c>
     </row>
     <row r="450">
@@ -21981,7 +21981,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>3973026583</v>
+        <v>4425303418</v>
       </c>
     </row>
     <row r="451">
@@ -22029,7 +22029,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>6135580631</v>
+        <v>1237044024</v>
       </c>
     </row>
     <row r="452">
@@ -22077,7 +22077,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>6072545457</v>
+        <v>7517823081</v>
       </c>
     </row>
     <row r="453">
@@ -22125,7 +22125,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>6553031034</v>
+        <v>6759118633</v>
       </c>
     </row>
     <row r="454">
@@ -22169,7 +22169,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>344496763</v>
+        <v>1410754455</v>
       </c>
     </row>
     <row r="455">
@@ -22217,7 +22217,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>7646439983</v>
+        <v>1417198871</v>
       </c>
     </row>
     <row r="456">
@@ -22265,7 +22265,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>677139864</v>
+        <v>9608838066</v>
       </c>
     </row>
     <row r="457">
@@ -22313,7 +22313,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>2594841329</v>
+        <v>503825007</v>
       </c>
     </row>
     <row r="458">
@@ -22361,7 +22361,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>5918288029</v>
+        <v>3678031921</v>
       </c>
     </row>
     <row r="459">
@@ -22409,7 +22409,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>3251080565</v>
+        <v>9306952645</v>
       </c>
     </row>
     <row r="460">
@@ -22459,7 +22459,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>346743715</v>
+        <v>8712799731</v>
       </c>
     </row>
     <row r="461">
@@ -22507,7 +22507,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>7012239040</v>
+        <v>2764751769</v>
       </c>
     </row>
     <row r="462">
@@ -22555,7 +22555,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1896079363</v>
+        <v>1770939595</v>
       </c>
     </row>
     <row r="463">
@@ -22603,7 +22603,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>8008240627</v>
+        <v>5303332280</v>
       </c>
     </row>
     <row r="464">
@@ -22651,7 +22651,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>9652244794</v>
+        <v>6193715845</v>
       </c>
     </row>
     <row r="465">
@@ -22699,7 +22699,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>6339152611</v>
+        <v>6024237319</v>
       </c>
     </row>
     <row r="466">
@@ -22747,7 +22747,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>6592364268</v>
+        <v>4485196281</v>
       </c>
     </row>
     <row r="467">
@@ -22795,7 +22795,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>8525204307</v>
+        <v>2884087222</v>
       </c>
     </row>
     <row r="468">
@@ -22843,7 +22843,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>4198671321</v>
+        <v>201327241</v>
       </c>
     </row>
     <row r="469">
@@ -22891,7 +22891,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>8387425077</v>
+        <v>4775262604</v>
       </c>
     </row>
     <row r="470">
@@ -22939,7 +22939,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>1143077279</v>
+        <v>393185729</v>
       </c>
     </row>
     <row r="471">
@@ -22987,7 +22987,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>4247597031</v>
+        <v>6588059290</v>
       </c>
     </row>
     <row r="472">
@@ -23035,7 +23035,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>5471139032</v>
+        <v>7133888583</v>
       </c>
     </row>
     <row r="473">
@@ -23081,7 +23081,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>8284713734</v>
+        <v>1113162319</v>
       </c>
     </row>
     <row r="474">
@@ -23129,7 +23129,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>3887864462</v>
+        <v>5358382031</v>
       </c>
     </row>
     <row r="475">
@@ -23177,7 +23177,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>8995959147</v>
+        <v>7925608869</v>
       </c>
     </row>
     <row r="476">
@@ -23225,7 +23225,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>9358104926</v>
+        <v>3781460061</v>
       </c>
     </row>
     <row r="477">
@@ -23273,7 +23273,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>9406065775</v>
+        <v>8273872514</v>
       </c>
     </row>
     <row r="478">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>617972884</v>
+        <v>2360159154</v>
       </c>
     </row>
     <row r="479">
@@ -23369,7 +23369,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>2503963553</v>
+        <v>7133256476</v>
       </c>
     </row>
     <row r="480">
@@ -23417,7 +23417,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>1864209909</v>
+        <v>2869241827</v>
       </c>
     </row>
     <row r="481">
@@ -23465,7 +23465,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>7267392298</v>
+        <v>9083236367</v>
       </c>
     </row>
     <row r="482">
@@ -23509,7 +23509,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>910558404</v>
+        <v>489110867</v>
       </c>
     </row>
     <row r="483">
@@ -23557,7 +23557,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>3225067716</v>
+        <v>5611729570</v>
       </c>
     </row>
     <row r="484">
@@ -23605,7 +23605,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>7276356456</v>
+        <v>9651124300</v>
       </c>
     </row>
     <row r="485">
@@ -23653,7 +23653,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>8887635953</v>
+        <v>7090265445</v>
       </c>
     </row>
     <row r="486">
@@ -23701,7 +23701,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>9229220181</v>
+        <v>2476139576</v>
       </c>
     </row>
     <row r="487">
@@ -23749,7 +23749,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>9531788666</v>
+        <v>3409195289</v>
       </c>
     </row>
     <row r="488">
@@ -23797,7 +23797,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>3328028445</v>
+        <v>3132038824</v>
       </c>
     </row>
     <row r="489">
@@ -23845,7 +23845,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>8801339311</v>
+        <v>3885117156</v>
       </c>
     </row>
     <row r="490">
@@ -23893,7 +23893,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>482963388</v>
+        <v>8233290521</v>
       </c>
     </row>
     <row r="491">
@@ -23941,7 +23941,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>4522904657</v>
+        <v>6472876880</v>
       </c>
     </row>
     <row r="492">
@@ -23989,7 +23989,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>4148506335</v>
+        <v>5081434421</v>
       </c>
     </row>
     <row r="493">
@@ -24037,7 +24037,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>8089206967</v>
+        <v>1541252879</v>
       </c>
     </row>
     <row r="494">
@@ -24085,7 +24085,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>918312372</v>
+        <v>5880102736</v>
       </c>
     </row>
     <row r="495">
@@ -24133,7 +24133,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>6700205687</v>
+        <v>1807454158</v>
       </c>
     </row>
     <row r="496">
@@ -24181,7 +24181,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>9132715894</v>
+        <v>2270265478</v>
       </c>
     </row>
     <row r="497">
@@ -24229,7 +24229,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>1030857422</v>
+        <v>3326212560</v>
       </c>
     </row>
     <row r="498">
@@ -24277,7 +24277,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>165741497</v>
+        <v>5118749259</v>
       </c>
     </row>
     <row r="499">
@@ -24325,7 +24325,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2050753636</v>
+        <v>1917167362</v>
       </c>
     </row>
     <row r="500">
@@ -24373,7 +24373,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>6722109845</v>
+        <v>5414877675</v>
       </c>
     </row>
     <row r="501">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>5018580728</v>
+        <v>5573950031</v>
       </c>
     </row>
     <row r="502">
@@ -24469,7 +24469,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>6631415429</v>
+        <v>504937051</v>
       </c>
     </row>
     <row r="503">
@@ -24517,7 +24517,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>9893377726</v>
+        <v>8233177204</v>
       </c>
     </row>
     <row r="504">
@@ -24565,7 +24565,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>3826113192</v>
+        <v>857441960</v>
       </c>
     </row>
     <row r="505">
@@ -24613,7 +24613,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>600559887</v>
+        <v>9598835263</v>
       </c>
     </row>
     <row r="506">
@@ -24661,7 +24661,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>7205647156</v>
+        <v>2992946531</v>
       </c>
     </row>
     <row r="507">
@@ -24709,7 +24709,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>8118153978</v>
+        <v>2884126141</v>
       </c>
     </row>
     <row r="508">
@@ -24757,7 +24757,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>3030724621</v>
+        <v>9932835280</v>
       </c>
     </row>
     <row r="509">
@@ -24805,7 +24805,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>7353991459</v>
+        <v>4733652339</v>
       </c>
     </row>
     <row r="510">
@@ -24853,7 +24853,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>5697365515</v>
+        <v>5142352515</v>
       </c>
     </row>
     <row r="511">
@@ -24901,7 +24901,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>8194404512</v>
+        <v>5902856575</v>
       </c>
     </row>
     <row r="512">
@@ -24949,7 +24949,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>7500224673</v>
+        <v>421662468</v>
       </c>
     </row>
     <row r="513">
@@ -24997,7 +24997,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>2802063023</v>
+        <v>5646793681</v>
       </c>
     </row>
     <row r="514">
@@ -25045,7 +25045,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>3598867498</v>
+        <v>3710306689</v>
       </c>
     </row>
     <row r="515">
@@ -25093,7 +25093,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>2115929741</v>
+        <v>6048985850</v>
       </c>
     </row>
     <row r="516">
@@ -25141,7 +25141,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>8077261853</v>
+        <v>8013403131</v>
       </c>
     </row>
     <row r="517">
@@ -25189,7 +25189,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>5269880846</v>
+        <v>6921550683</v>
       </c>
     </row>
     <row r="518">
@@ -25237,7 +25237,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>9198383264</v>
+        <v>2033750164</v>
       </c>
     </row>
     <row r="519">
@@ -25285,7 +25285,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>1570654608</v>
+        <v>4617044857</v>
       </c>
     </row>
     <row r="520">
@@ -25333,7 +25333,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>6018208831</v>
+        <v>1706575390</v>
       </c>
     </row>
     <row r="521">
@@ -25381,7 +25381,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>9348319552</v>
+        <v>2561708946</v>
       </c>
     </row>
     <row r="522">
@@ -25425,7 +25425,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>9093886772</v>
+        <v>80163965</v>
       </c>
     </row>
     <row r="523">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>566743551</v>
+        <v>7054655605</v>
       </c>
     </row>
     <row r="524">
@@ -25517,7 +25517,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>8968375749</v>
+        <v>972815421</v>
       </c>
     </row>
     <row r="525">
@@ -25565,7 +25565,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>6552361937</v>
+        <v>9483795684</v>
       </c>
     </row>
     <row r="526">
@@ -25613,7 +25613,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>4963211466</v>
+        <v>5467817468</v>
       </c>
     </row>
     <row r="527">
@@ -25661,7 +25661,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>5467240123</v>
+        <v>8778833365</v>
       </c>
     </row>
     <row r="528">
@@ -25709,7 +25709,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>2184453150</v>
+        <v>1517741881</v>
       </c>
     </row>
     <row r="529">
@@ -25757,7 +25757,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>4602190614</v>
+        <v>2815540741</v>
       </c>
     </row>
     <row r="530">
@@ -25805,7 +25805,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>8737576264</v>
+        <v>9218649323</v>
       </c>
     </row>
     <row r="531">
@@ -25853,7 +25853,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>4316143740</v>
+        <v>9541794690</v>
       </c>
     </row>
     <row r="532">
@@ -25901,7 +25901,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>8780614191</v>
+        <v>1022481201</v>
       </c>
     </row>
     <row r="533">
@@ -25949,7 +25949,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>7985541639</v>
+        <v>1418007020</v>
       </c>
     </row>
     <row r="534">
@@ -25993,7 +25993,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>4768457885</v>
+        <v>748077052</v>
       </c>
     </row>
     <row r="535">
@@ -26041,7 +26041,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>5356043810</v>
+        <v>1757707426</v>
       </c>
     </row>
     <row r="536">
@@ -26089,7 +26089,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>1546575791</v>
+        <v>6739767406</v>
       </c>
     </row>
     <row r="537">
@@ -26137,7 +26137,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>4099418515</v>
+        <v>7321027825</v>
       </c>
     </row>
     <row r="538">
@@ -26181,7 +26181,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>7102531665</v>
+        <v>8898497282</v>
       </c>
     </row>
     <row r="539">
@@ -26229,7 +26229,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>331006668</v>
+        <v>4871451939</v>
       </c>
     </row>
     <row r="540">
@@ -26273,7 +26273,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>711633164</v>
+        <v>8934701448</v>
       </c>
     </row>
     <row r="541">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>5039815089</v>
+        <v>5458750616</v>
       </c>
     </row>
     <row r="542">
@@ -26369,7 +26369,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>6471215548</v>
+        <v>4906343138</v>
       </c>
     </row>
     <row r="543">
@@ -26413,7 +26413,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>6610192173</v>
+        <v>4451793264</v>
       </c>
     </row>
     <row r="544">
@@ -26461,7 +26461,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>9463193172</v>
+        <v>3046820097</v>
       </c>
     </row>
     <row r="545">
@@ -26509,7 +26509,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>2864501588</v>
+        <v>2320850608</v>
       </c>
     </row>
     <row r="546">
@@ -26557,7 +26557,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>3938289060</v>
+        <v>9410752574</v>
       </c>
     </row>
     <row r="547">
@@ -26605,7 +26605,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>4558291390</v>
+        <v>8450235</v>
       </c>
     </row>
     <row r="548">
@@ -26653,7 +26653,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>7005657401</v>
+        <v>4407708137</v>
       </c>
     </row>
     <row r="549">
@@ -26701,7 +26701,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>7723889339</v>
+        <v>8115982737</v>
       </c>
     </row>
     <row r="550">
@@ -26749,7 +26749,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>4765397961</v>
+        <v>2415839632</v>
       </c>
     </row>
     <row r="551">
@@ -26797,7 +26797,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>184694188</v>
+        <v>9131520910</v>
       </c>
     </row>
     <row r="552">
@@ -26845,7 +26845,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>8513918686</v>
+        <v>2002200829</v>
       </c>
     </row>
     <row r="553">
@@ -26893,7 +26893,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>8558683962</v>
+        <v>2705671836</v>
       </c>
     </row>
     <row r="554">
@@ -26941,7 +26941,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>8980281602</v>
+        <v>8954303870</v>
       </c>
     </row>
     <row r="555">
@@ -26989,7 +26989,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>3030823386</v>
+        <v>7360027544</v>
       </c>
     </row>
     <row r="556">
@@ -27037,7 +27037,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>8340546024</v>
+        <v>3515277435</v>
       </c>
     </row>
     <row r="557">
@@ -27085,7 +27085,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>5714883913</v>
+        <v>1957377866</v>
       </c>
     </row>
     <row r="558">
@@ -27133,7 +27133,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>4033039436</v>
+        <v>7027517532</v>
       </c>
     </row>
     <row r="559">
@@ -27181,7 +27181,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>9243545140</v>
+        <v>3149702608</v>
       </c>
     </row>
     <row r="560">
@@ -27229,7 +27229,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>988997749</v>
+        <v>380648932</v>
       </c>
     </row>
     <row r="561">
@@ -27277,7 +27277,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>9977981708</v>
+        <v>8974795209</v>
       </c>
     </row>
     <row r="562">
@@ -27325,7 +27325,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>752799777</v>
+        <v>1324223774</v>
       </c>
     </row>
     <row r="563">
@@ -27373,7 +27373,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>6599099134</v>
+        <v>1540914217</v>
       </c>
     </row>
     <row r="564">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>3194710577</v>
+        <v>9261731307</v>
       </c>
     </row>
     <row r="565">
@@ -27469,7 +27469,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>100362299</v>
+        <v>7397642756</v>
       </c>
     </row>
     <row r="566">
@@ -27517,7 +27517,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>7201521454</v>
+        <v>3404245487</v>
       </c>
     </row>
     <row r="567">
@@ -27565,7 +27565,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>488340030</v>
+        <v>9778079886</v>
       </c>
     </row>
     <row r="568">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>4284740830</v>
+        <v>5815415222</v>
       </c>
     </row>
     <row r="569">
@@ -27661,7 +27661,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>6151649601</v>
+        <v>9413410553</v>
       </c>
     </row>
     <row r="570">
@@ -27709,7 +27709,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>4141764422</v>
+        <v>5551195511</v>
       </c>
     </row>
     <row r="571">
@@ -27757,7 +27757,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>3684482739</v>
+        <v>2133394286</v>
       </c>
     </row>
     <row r="572">
@@ -27805,7 +27805,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>653620867</v>
+        <v>3990320178</v>
       </c>
     </row>
     <row r="573">
@@ -27853,7 +27853,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>8350132140</v>
+        <v>3449248120</v>
       </c>
     </row>
     <row r="574">
@@ -27901,7 +27901,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>5220632857</v>
+        <v>4417396802</v>
       </c>
     </row>
     <row r="575">
@@ -27949,7 +27949,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>3608963776</v>
+        <v>417846192</v>
       </c>
     </row>
     <row r="576">
@@ -27997,7 +27997,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>2907628796</v>
+        <v>1759488348</v>
       </c>
     </row>
     <row r="577">
@@ -28045,7 +28045,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>7935959917</v>
+        <v>6324629772</v>
       </c>
     </row>
     <row r="578">
@@ -28093,7 +28093,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>3167319402</v>
+        <v>5434224346</v>
       </c>
     </row>
     <row r="579">
@@ -28141,7 +28141,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>3778505403</v>
+        <v>9558291451</v>
       </c>
     </row>
     <row r="580">
@@ -28189,7 +28189,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>2392561738</v>
+        <v>9737821686</v>
       </c>
     </row>
     <row r="581">
@@ -28237,7 +28237,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>4582807882</v>
+        <v>9113954903</v>
       </c>
     </row>
     <row r="582">
@@ -28285,7 +28285,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>334374244</v>
+        <v>2724439585</v>
       </c>
     </row>
     <row r="583">
@@ -28333,7 +28333,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>7086116627</v>
+        <v>4258081449</v>
       </c>
     </row>
     <row r="584">
@@ -28381,7 +28381,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>4477838716</v>
+        <v>4387911776</v>
       </c>
     </row>
     <row r="585">
@@ -28429,7 +28429,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>8736746508</v>
+        <v>6947854350</v>
       </c>
     </row>
     <row r="586">
@@ -28477,7 +28477,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>463481985</v>
+        <v>5541692519</v>
       </c>
     </row>
     <row r="587">
@@ -28525,7 +28525,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>5160991719</v>
+        <v>6381941601</v>
       </c>
     </row>
     <row r="588">
@@ -28573,7 +28573,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>5891715656</v>
+        <v>1793423413</v>
       </c>
     </row>
     <row r="589">
@@ -28617,7 +28617,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>8753554095</v>
+        <v>7298358384</v>
       </c>
     </row>
     <row r="590">
@@ -28665,7 +28665,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>7640873037</v>
+        <v>8492997904</v>
       </c>
     </row>
     <row r="591">
@@ -28709,7 +28709,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>8604353715</v>
+        <v>6265932219</v>
       </c>
     </row>
     <row r="592">
@@ -28757,7 +28757,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>6444656684</v>
+        <v>3994228680</v>
       </c>
     </row>
     <row r="593">
@@ -28801,7 +28801,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>7147829162</v>
+        <v>538787053</v>
       </c>
     </row>
     <row r="594">
@@ -28851,7 +28851,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>3538178408</v>
+        <v>3622207910</v>
       </c>
     </row>
     <row r="595">
@@ -28899,7 +28899,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>3948126644</v>
+        <v>3392411208</v>
       </c>
     </row>
     <row r="596">
@@ -28947,7 +28947,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>3636748341</v>
+        <v>2555282381</v>
       </c>
     </row>
     <row r="597">
@@ -28995,7 +28995,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>8376252666</v>
+        <v>9198029705</v>
       </c>
     </row>
     <row r="598">
@@ -29043,7 +29043,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>3886670591</v>
+        <v>2039989160</v>
       </c>
     </row>
     <row r="599">
@@ -29091,7 +29091,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>4951054396</v>
+        <v>1749381058</v>
       </c>
     </row>
     <row r="600">
@@ -29141,7 +29141,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>611888499</v>
+        <v>1703930817</v>
       </c>
     </row>
     <row r="601">
@@ -29189,7 +29189,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>4909152435</v>
+        <v>4013916655</v>
       </c>
     </row>
     <row r="602">
@@ -29237,7 +29237,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>3462173682</v>
+        <v>7744720611</v>
       </c>
     </row>
     <row r="603">
@@ -29285,7 +29285,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>1395843624</v>
+        <v>7292628109</v>
       </c>
     </row>
     <row r="604">
@@ -29333,7 +29333,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>3463197854</v>
+        <v>9460916077</v>
       </c>
     </row>
     <row r="605">
@@ -29381,7 +29381,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>6257675124</v>
+        <v>3335895885</v>
       </c>
     </row>
     <row r="606">
@@ -29429,7 +29429,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>567505040</v>
+        <v>5248165250</v>
       </c>
     </row>
     <row r="607">
@@ -29477,7 +29477,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>8620891885</v>
+        <v>4237493256</v>
       </c>
     </row>
     <row r="608">
@@ -29527,7 +29527,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>6004597361</v>
+        <v>6998715258</v>
       </c>
     </row>
     <row r="609">
@@ -29575,7 +29575,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>4522822594</v>
+        <v>3467986856</v>
       </c>
     </row>
     <row r="610">
@@ -29623,7 +29623,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>4386132989</v>
+        <v>8918334311</v>
       </c>
     </row>
     <row r="611">
@@ -29671,7 +29671,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>609441392</v>
+        <v>1017743956</v>
       </c>
     </row>
     <row r="612">
@@ -29719,7 +29719,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>5783142618</v>
+        <v>1462303789</v>
       </c>
     </row>
     <row r="613">
@@ -29767,7 +29767,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>6792301672</v>
+        <v>8465557737</v>
       </c>
     </row>
     <row r="614">
@@ -29815,7 +29815,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>1458156986</v>
+        <v>3490919117</v>
       </c>
     </row>
     <row r="615">
@@ -29863,7 +29863,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>4457731299</v>
+        <v>9686527520</v>
       </c>
     </row>
     <row r="616">
@@ -29911,7 +29911,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>2993608993</v>
+        <v>5732159791</v>
       </c>
     </row>
     <row r="617">
@@ -29959,7 +29959,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>6071478883</v>
+        <v>5176183553</v>
       </c>
     </row>
     <row r="618">
@@ -30007,7 +30007,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>3962191466</v>
+        <v>757419288</v>
       </c>
     </row>
     <row r="619">
@@ -30055,7 +30055,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>7249664421</v>
+        <v>9827822676</v>
       </c>
     </row>
     <row r="620">
@@ -30103,7 +30103,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>8984050371</v>
+        <v>4939315676</v>
       </c>
     </row>
     <row r="621">
@@ -30151,7 +30151,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>5674102632</v>
+        <v>4634411695</v>
       </c>
     </row>
     <row r="622">
@@ -30199,7 +30199,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>1102103190</v>
+        <v>2921124533</v>
       </c>
     </row>
     <row r="623">
@@ -30247,7 +30247,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>9250787672</v>
+        <v>3486756032</v>
       </c>
     </row>
     <row r="624">
@@ -30293,7 +30293,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>1779432145</v>
+        <v>6640166176</v>
       </c>
     </row>
     <row r="625">
@@ -30341,7 +30341,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>5048583315</v>
+        <v>2544771160</v>
       </c>
     </row>
     <row r="626">
@@ -30389,7 +30389,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>8213385031</v>
+        <v>9701634858</v>
       </c>
     </row>
     <row r="627">
@@ -30437,7 +30437,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>3727386036</v>
+        <v>2907133430</v>
       </c>
     </row>
     <row r="628">
@@ -30485,7 +30485,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>7804033808</v>
+        <v>9887327101</v>
       </c>
     </row>
     <row r="629">
@@ -30533,7 +30533,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>4546159878</v>
+        <v>2483209266</v>
       </c>
     </row>
     <row r="630">
@@ -30581,7 +30581,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>2479998580</v>
+        <v>1787806459</v>
       </c>
     </row>
     <row r="631">
@@ -30629,7 +30629,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>3399434420</v>
+        <v>4921609771</v>
       </c>
     </row>
     <row r="632">
@@ -30677,7 +30677,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>2687095449</v>
+        <v>9341652139</v>
       </c>
     </row>
     <row r="633">
@@ -30725,7 +30725,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>3364204872</v>
+        <v>4650290031</v>
       </c>
     </row>
     <row r="634">
@@ -30773,7 +30773,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>3795803342</v>
+        <v>3115768594</v>
       </c>
     </row>
     <row r="635">
@@ -30821,7 +30821,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>6536815113</v>
+        <v>8131646506</v>
       </c>
     </row>
     <row r="636">
@@ -30869,7 +30869,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>7742110058</v>
+        <v>9333642164</v>
       </c>
     </row>
     <row r="637">
@@ -30917,7 +30917,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>2651153648</v>
+        <v>4974600007</v>
       </c>
     </row>
     <row r="638">
@@ -30965,7 +30965,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>4463309617</v>
+        <v>4691729268</v>
       </c>
     </row>
     <row r="639">
@@ -31013,7 +31013,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>1091633826</v>
+        <v>760760571</v>
       </c>
     </row>
     <row r="640">
@@ -31059,7 +31059,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>6247676607</v>
+        <v>6760005553</v>
       </c>
     </row>
     <row r="641">
@@ -31107,7 +31107,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>3214963253</v>
+        <v>3277041559</v>
       </c>
     </row>
     <row r="642">
@@ -31153,7 +31153,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>1315135311</v>
+        <v>3713886151</v>
       </c>
     </row>
     <row r="643">
@@ -31199,7 +31199,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>8472603902</v>
+        <v>7045173029</v>
       </c>
     </row>
     <row r="644">
@@ -31245,7 +31245,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>4046500638</v>
+        <v>503807792</v>
       </c>
     </row>
     <row r="645">
@@ -31291,7 +31291,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>1300007528</v>
+        <v>7222050629</v>
       </c>
     </row>
     <row r="646">
@@ -31339,7 +31339,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>7281337658</v>
+        <v>5327868015</v>
       </c>
     </row>
     <row r="647">
@@ -31387,7 +31387,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>6384329363</v>
+        <v>336138671</v>
       </c>
     </row>
     <row r="648">
@@ -31435,7 +31435,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>9898478270</v>
+        <v>170780994</v>
       </c>
     </row>
     <row r="649">
@@ -31483,7 +31483,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>6036173968</v>
+        <v>5794602977</v>
       </c>
     </row>
     <row r="650">
@@ -31531,7 +31531,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>693598835</v>
+        <v>4117276028</v>
       </c>
     </row>
     <row r="651">
@@ -31579,7 +31579,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>1996307926</v>
+        <v>6001275086</v>
       </c>
     </row>
     <row r="652">
@@ -31627,7 +31627,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>3603808689</v>
+        <v>3045423143</v>
       </c>
     </row>
     <row r="653">
@@ -31675,7 +31675,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>7268743304</v>
+        <v>4049785586</v>
       </c>
     </row>
     <row r="654">
@@ -31721,7 +31721,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>1261056549</v>
+        <v>7737186111</v>
       </c>
     </row>
     <row r="655">
@@ -31769,7 +31769,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>5251379841</v>
+        <v>5124772027</v>
       </c>
     </row>
     <row r="656">
@@ -31815,7 +31815,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>3772529949</v>
+        <v>1109138674</v>
       </c>
     </row>
     <row r="657">
@@ -31863,7 +31863,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>3439666790</v>
+        <v>8236057377</v>
       </c>
     </row>
     <row r="658">
@@ -31911,7 +31911,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>7800595121</v>
+        <v>7864851289</v>
       </c>
     </row>
     <row r="659">
@@ -31959,7 +31959,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>6373869696</v>
+        <v>8915564102</v>
       </c>
     </row>
     <row r="660">
@@ -32007,7 +32007,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>851743338</v>
+        <v>7569562245</v>
       </c>
     </row>
     <row r="661">
@@ -32055,7 +32055,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>9565876358</v>
+        <v>8099210258</v>
       </c>
     </row>
     <row r="662">
@@ -32103,7 +32103,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>1619540595</v>
+        <v>426120072</v>
       </c>
     </row>
     <row r="663">
@@ -32151,7 +32151,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>7296710629</v>
+        <v>3515187444</v>
       </c>
     </row>
     <row r="664">
@@ -32199,7 +32199,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>1484548871</v>
+        <v>363211438</v>
       </c>
     </row>
     <row r="665">
@@ -32247,7 +32247,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>8165745750</v>
+        <v>1086702886</v>
       </c>
     </row>
     <row r="666">
@@ -32295,7 +32295,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>20187331</v>
+        <v>4803031940</v>
       </c>
     </row>
     <row r="667">
@@ -32343,7 +32343,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>4618691332</v>
+        <v>9438381715</v>
       </c>
     </row>
     <row r="668">
@@ -32393,7 +32393,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>1837367600</v>
+        <v>9885866916</v>
       </c>
     </row>
     <row r="669">
@@ -32441,7 +32441,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>6350181437</v>
+        <v>8365828974</v>
       </c>
     </row>
     <row r="670">
@@ -32489,7 +32489,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>5969464658</v>
+        <v>2870113852</v>
       </c>
     </row>
     <row r="671">
@@ -32537,7 +32537,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>238557916</v>
+        <v>7146767825</v>
       </c>
     </row>
     <row r="672">
@@ -32585,7 +32585,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>2742475563</v>
+        <v>3916387793</v>
       </c>
     </row>
     <row r="673">
@@ -32631,7 +32631,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>679502829</v>
+        <v>7999957205</v>
       </c>
     </row>
     <row r="674">
@@ -32679,7 +32679,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>9924014377</v>
+        <v>4107482398</v>
       </c>
     </row>
     <row r="675">
@@ -32727,7 +32727,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>8777846474</v>
+        <v>2317376414</v>
       </c>
     </row>
     <row r="676">
@@ -32775,7 +32775,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>8723331712</v>
+        <v>9774837048</v>
       </c>
     </row>
     <row r="677">
@@ -32823,7 +32823,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>18330328</v>
+        <v>2150516925</v>
       </c>
     </row>
     <row r="678">
@@ -32869,7 +32869,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>9971252693</v>
+        <v>1768686355</v>
       </c>
     </row>
     <row r="679">
@@ -32915,7 +32915,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>683641014</v>
+        <v>2382695403</v>
       </c>
     </row>
     <row r="680">
@@ -32963,7 +32963,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>2540155978</v>
+        <v>1276163304</v>
       </c>
     </row>
     <row r="681">
@@ -33009,7 +33009,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>9988775911</v>
+        <v>2869760320</v>
       </c>
     </row>
     <row r="682">
@@ -33057,7 +33057,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>7693200548</v>
+        <v>9033734513</v>
       </c>
     </row>
     <row r="683">
@@ -33105,7 +33105,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>6038461369</v>
+        <v>7770500254</v>
       </c>
     </row>
     <row r="684">
@@ -33155,7 +33155,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>1111416503</v>
+        <v>9246290100</v>
       </c>
     </row>
     <row r="685">
@@ -33203,7 +33203,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>5805869366</v>
+        <v>643466603</v>
       </c>
     </row>
     <row r="686">
@@ -33253,7 +33253,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>6121784983</v>
+        <v>7816507425</v>
       </c>
     </row>
     <row r="687">
@@ -33303,7 +33303,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>4451620169</v>
+        <v>8825437014</v>
       </c>
     </row>
     <row r="688">
@@ -33353,7 +33353,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>3882866979</v>
+        <v>3307625950</v>
       </c>
     </row>
     <row r="689">
@@ -33403,7 +33403,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>7872470777</v>
+        <v>4819153687</v>
       </c>
     </row>
     <row r="690">
@@ -33453,7 +33453,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>720986583</v>
+        <v>1855915841</v>
       </c>
     </row>
     <row r="691">
@@ -33501,7 +33501,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>2077209329</v>
+        <v>1057216037</v>
       </c>
     </row>
     <row r="692">
@@ -33549,7 +33549,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>1049318485</v>
+        <v>3204577035</v>
       </c>
     </row>
     <row r="693">
@@ -33601,7 +33601,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>2641158639</v>
+        <v>557101758</v>
       </c>
     </row>
     <row r="694">
@@ -33651,7 +33651,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>8411664737</v>
+        <v>4320202742</v>
       </c>
     </row>
     <row r="695">
@@ -33701,7 +33701,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>7683076762</v>
+        <v>4761126015</v>
       </c>
     </row>
     <row r="696">
@@ -33751,7 +33751,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>6840817760</v>
+        <v>3659443040</v>
       </c>
     </row>
     <row r="697">
@@ -33801,7 +33801,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>1866446881</v>
+        <v>4877980575</v>
       </c>
     </row>
     <row r="698">
@@ -33851,7 +33851,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>1740657218</v>
+        <v>8477483457</v>
       </c>
     </row>
     <row r="699">
@@ -33899,7 +33899,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>1116508349</v>
+        <v>9506313873</v>
       </c>
     </row>
     <row r="700">
@@ -33949,7 +33949,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>4603237947</v>
+        <v>7560145734</v>
       </c>
     </row>
     <row r="701">
@@ -33997,7 +33997,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>5286341092</v>
+        <v>9746858093</v>
       </c>
     </row>
     <row r="702">
@@ -34045,7 +34045,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>3429772715</v>
+        <v>8254095631</v>
       </c>
     </row>
     <row r="703">
@@ -34095,7 +34095,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>9674980385</v>
+        <v>2027569388</v>
       </c>
     </row>
     <row r="704">
@@ -34143,7 +34143,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>433913764</v>
+        <v>5827790394</v>
       </c>
     </row>
     <row r="705">
@@ -34191,7 +34191,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>2305515444</v>
+        <v>3696377381</v>
       </c>
     </row>
     <row r="706">
@@ -34239,7 +34239,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>5714089100</v>
+        <v>8213171017</v>
       </c>
     </row>
     <row r="707">
@@ -34287,7 +34287,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>8274467044</v>
+        <v>3162603292</v>
       </c>
     </row>
     <row r="708">
@@ -34337,7 +34337,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>1933997962</v>
+        <v>296542895</v>
       </c>
     </row>
     <row r="709">
@@ -34385,7 +34385,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>4614384367</v>
+        <v>7026131280</v>
       </c>
     </row>
     <row r="710">
@@ -34433,7 +34433,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>178810821</v>
+        <v>76742558</v>
       </c>
     </row>
     <row r="711">
@@ -34481,7 +34481,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>5479273115</v>
+        <v>5871584839</v>
       </c>
     </row>
     <row r="712">
@@ -34529,7 +34529,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>6595450095</v>
+        <v>6654335067</v>
       </c>
     </row>
     <row r="713">
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>2677103987</v>
+        <v>347429532</v>
       </c>
     </row>
     <row r="714">
@@ -34627,7 +34627,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>9055196284</v>
+        <v>7244334010</v>
       </c>
     </row>
     <row r="715">
@@ -34675,7 +34675,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>3128898604</v>
+        <v>8147610211</v>
       </c>
     </row>
     <row r="716">
@@ -34725,7 +34725,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>8068498825</v>
+        <v>6879046934</v>
       </c>
     </row>
     <row r="717">
@@ -34773,7 +34773,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>2418766280</v>
+        <v>4473471319</v>
       </c>
     </row>
     <row r="718">
@@ -34821,7 +34821,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>737886689</v>
+        <v>704166397</v>
       </c>
     </row>
     <row r="719">
@@ -34869,7 +34869,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>5593356987</v>
+        <v>1003124908</v>
       </c>
     </row>
     <row r="720">
@@ -34917,7 +34917,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>8737883980</v>
+        <v>1016620267</v>
       </c>
     </row>
     <row r="721">
@@ -34967,7 +34967,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>5084214264</v>
+        <v>260802938</v>
       </c>
     </row>
     <row r="722">
@@ -35017,7 +35017,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>1497116996</v>
+        <v>5273511123</v>
       </c>
     </row>
     <row r="723">
@@ -35065,7 +35065,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>7337016780</v>
+        <v>9967899778</v>
       </c>
     </row>
     <row r="724">
@@ -35111,7 +35111,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>1568193538</v>
+        <v>6337016864</v>
       </c>
     </row>
     <row r="725">
@@ -35161,7 +35161,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>3438759729</v>
+        <v>725257759</v>
       </c>
     </row>
     <row r="726">
@@ -35209,7 +35209,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>4021187159</v>
+        <v>637352595</v>
       </c>
     </row>
     <row r="727">
@@ -35257,7 +35257,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>7077353110</v>
+        <v>2178371159</v>
       </c>
     </row>
     <row r="728">
@@ -35307,7 +35307,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>193717776</v>
+        <v>3052751418</v>
       </c>
     </row>
     <row r="729">
@@ -35355,7 +35355,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>2796691164</v>
+        <v>8731922774</v>
       </c>
     </row>
     <row r="730">
@@ -35399,7 +35399,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>177489300</v>
+        <v>7891699647</v>
       </c>
     </row>
     <row r="731">
@@ -35447,7 +35447,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>1591076433</v>
+        <v>8034183109</v>
       </c>
     </row>
     <row r="732">
@@ -35495,7 +35495,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>510311150</v>
+        <v>756562583</v>
       </c>
     </row>
     <row r="733">
@@ -35543,7 +35543,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>8474908284</v>
+        <v>9327272959</v>
       </c>
     </row>
     <row r="734">
@@ -35591,7 +35591,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>3989124528</v>
+        <v>3161283902</v>
       </c>
     </row>
     <row r="735">
@@ -35639,7 +35639,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>2514782003</v>
+        <v>5429154237</v>
       </c>
     </row>
     <row r="736">
@@ -35687,7 +35687,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>398241516</v>
+        <v>3588460626</v>
       </c>
     </row>
     <row r="737">
@@ -35735,7 +35735,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>416817374</v>
+        <v>8345448608</v>
       </c>
     </row>
     <row r="738">
@@ -35783,7 +35783,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>273385794</v>
+        <v>127743982</v>
       </c>
     </row>
     <row r="739">
@@ -35831,7 +35831,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>8615888902</v>
+        <v>8879534231</v>
       </c>
     </row>
     <row r="740">
@@ -35879,7 +35879,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>2359918588</v>
+        <v>3333827371</v>
       </c>
     </row>
     <row r="741">
@@ -35929,7 +35929,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>9690647477</v>
+        <v>1312221301</v>
       </c>
     </row>
     <row r="742">
@@ -35977,7 +35977,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>5140130966</v>
+        <v>2597529999</v>
       </c>
     </row>
     <row r="743">
@@ -36025,7 +36025,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>1334521734</v>
+        <v>645166273</v>
       </c>
     </row>
     <row r="744">
@@ -36075,7 +36075,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>6761084498</v>
+        <v>6535293416</v>
       </c>
     </row>
     <row r="745">
@@ -36123,7 +36123,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>1583445862</v>
+        <v>8427839429</v>
       </c>
     </row>
     <row r="746">
@@ -36171,7 +36171,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>5475945293</v>
+        <v>9949474207</v>
       </c>
     </row>
     <row r="747">
@@ -36221,7 +36221,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>3464325048</v>
+        <v>2960735282</v>
       </c>
     </row>
     <row r="748">
@@ -36269,7 +36269,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>8902217560</v>
+        <v>8353093601</v>
       </c>
     </row>
     <row r="749">
@@ -36319,7 +36319,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>7272911815</v>
+        <v>1332712464</v>
       </c>
     </row>
     <row r="750">
@@ -36369,7 +36369,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>8641798072</v>
+        <v>4878851609</v>
       </c>
     </row>
     <row r="751">
@@ -36417,7 +36417,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>2130384541</v>
+        <v>6090521524</v>
       </c>
     </row>
     <row r="752">
@@ -36465,7 +36465,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>5025637206</v>
+        <v>6143920561</v>
       </c>
     </row>
     <row r="753">
@@ -36513,7 +36513,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>4242754326</v>
+        <v>3703697765</v>
       </c>
     </row>
     <row r="754">
@@ -36561,7 +36561,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>11976951</v>
+        <v>2902271797</v>
       </c>
     </row>
     <row r="755">
@@ -36609,7 +36609,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>1088913462</v>
+        <v>4926887173</v>
       </c>
     </row>
     <row r="756">
@@ -36657,7 +36657,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>1088073466</v>
+        <v>268075386</v>
       </c>
     </row>
     <row r="757">
@@ -36705,7 +36705,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>427250630</v>
+        <v>2711756494</v>
       </c>
     </row>
     <row r="758">
@@ -36755,7 +36755,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>3349018055</v>
+        <v>7743188738</v>
       </c>
     </row>
     <row r="759">
@@ -36803,7 +36803,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>7112541662</v>
+        <v>6484303955</v>
       </c>
     </row>
     <row r="760">
@@ -36851,7 +36851,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>7545592205</v>
+        <v>5237545280</v>
       </c>
     </row>
     <row r="761">
@@ -36899,7 +36899,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>1897469438</v>
+        <v>4978351861</v>
       </c>
     </row>
     <row r="762">
@@ -36949,7 +36949,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>31136927</v>
+        <v>7846921974</v>
       </c>
     </row>
     <row r="763">
@@ -36999,7 +36999,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>1799478664</v>
+        <v>6544422469</v>
       </c>
     </row>
     <row r="764">
@@ -37047,7 +37047,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>5186980662</v>
+        <v>6110491186</v>
       </c>
     </row>
     <row r="765">
@@ -37095,7 +37095,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>6613860969</v>
+        <v>1697252791</v>
       </c>
     </row>
     <row r="766">
@@ -37145,7 +37145,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>4789575710</v>
+        <v>1646230900</v>
       </c>
     </row>
     <row r="767">
@@ -37193,7 +37193,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>9922358918</v>
+        <v>8662950089</v>
       </c>
     </row>
     <row r="768">
@@ -37241,7 +37241,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>2875718097</v>
+        <v>5492793732</v>
       </c>
     </row>
     <row r="769">
@@ -37289,7 +37289,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>5102146188</v>
+        <v>3677233184</v>
       </c>
     </row>
     <row r="770">
@@ -37337,7 +37337,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>78026084</v>
+        <v>7264995423</v>
       </c>
     </row>
     <row r="771">
@@ -37375,7 +37375,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>632676818</v>
+        <v>3328547540</v>
       </c>
     </row>
   </sheetData>
